--- a/Code/Results/Cases/Case_9_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30481954977986</v>
+        <v>24.32520472290527</v>
       </c>
       <c r="C2">
-        <v>18.51977696335817</v>
+        <v>18.55298540314429</v>
       </c>
       <c r="D2">
-        <v>9.092126501084003</v>
+        <v>9.11458549474804</v>
       </c>
       <c r="E2">
-        <v>12.88378434503084</v>
+        <v>12.89636172375702</v>
       </c>
       <c r="F2">
-        <v>19.8678234848027</v>
+        <v>19.78140223919097</v>
       </c>
       <c r="G2">
-        <v>19.11805792233684</v>
+        <v>18.25337863351103</v>
       </c>
       <c r="H2">
-        <v>2.033989456418288</v>
+        <v>2.03800233991072</v>
       </c>
       <c r="I2">
-        <v>2.739640329385121</v>
+        <v>2.786448616325526</v>
       </c>
       <c r="J2">
-        <v>8.156164556845665</v>
+        <v>8.666089704359523</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.370053067486175</v>
+        <v>10.13692275511987</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.534035076478266</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.370115622405036</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.91593847401088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.84715528607405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71499538005499</v>
+        <v>22.74357857698284</v>
       </c>
       <c r="C3">
-        <v>17.43363011641638</v>
+        <v>17.36336933142046</v>
       </c>
       <c r="D3">
-        <v>8.665384305980991</v>
+        <v>8.682941843364805</v>
       </c>
       <c r="E3">
-        <v>12.31096739265329</v>
+        <v>12.32795006934869</v>
       </c>
       <c r="F3">
-        <v>19.5329505373636</v>
+        <v>19.47366327096373</v>
       </c>
       <c r="G3">
-        <v>18.85494475844324</v>
+        <v>18.04092498656854</v>
       </c>
       <c r="H3">
-        <v>1.81326991734662</v>
+        <v>1.826867291658924</v>
       </c>
       <c r="I3">
-        <v>2.580247985022324</v>
+        <v>2.645056284177733</v>
       </c>
       <c r="J3">
-        <v>8.219857952987963</v>
+        <v>8.698178890019918</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.17099214003833</v>
+        <v>10.36133519574619</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.844682701734987</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.176608298469366</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.94515058704349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.88760184247181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.67923388876471</v>
+        <v>21.71314189492049</v>
       </c>
       <c r="C4">
-        <v>16.73700355508326</v>
+        <v>16.59862227261909</v>
       </c>
       <c r="D4">
-        <v>8.393714635060816</v>
+        <v>8.408439633658888</v>
       </c>
       <c r="E4">
-        <v>11.94565981725449</v>
+        <v>11.96573187185669</v>
       </c>
       <c r="F4">
-        <v>19.33425982995196</v>
+        <v>19.28988083649693</v>
       </c>
       <c r="G4">
-        <v>18.70947623528437</v>
+        <v>17.92727539961986</v>
       </c>
       <c r="H4">
-        <v>1.67275783147728</v>
+        <v>1.692390299382764</v>
       </c>
       <c r="I4">
-        <v>2.480003060199413</v>
+        <v>2.55628566771909</v>
       </c>
       <c r="J4">
-        <v>8.262767912466149</v>
+        <v>8.719520831039898</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.045265873889452</v>
+        <v>10.50763607904158</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.05087833860341</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.054441680899168</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.97177556311773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.91931474322732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.24198914489639</v>
+        <v>21.27815067330463</v>
       </c>
       <c r="C5">
-        <v>16.46211381740441</v>
+        <v>16.29429030134485</v>
       </c>
       <c r="D5">
-        <v>8.282974857287639</v>
+        <v>8.296492214587733</v>
       </c>
       <c r="E5">
-        <v>11.79439752704549</v>
+        <v>11.81578686724848</v>
       </c>
       <c r="F5">
-        <v>19.24631840047925</v>
+        <v>19.20792985677548</v>
       </c>
       <c r="G5">
-        <v>18.63849035838435</v>
+        <v>17.86961393927679</v>
       </c>
       <c r="H5">
-        <v>1.614073666706659</v>
+        <v>1.636207594303783</v>
       </c>
       <c r="I5">
-        <v>2.510189352871087</v>
+        <v>2.520673905968855</v>
       </c>
       <c r="J5">
-        <v>8.278737837200369</v>
+        <v>8.726310704029542</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.992905892085536</v>
+        <v>10.56530670284655</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.138184992027973</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.003580428091137</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.97847571252925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.92789882390593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.16831250345817</v>
+        <v>21.2048492375869</v>
       </c>
       <c r="C6">
-        <v>16.43603188738716</v>
+        <v>16.26259216162629</v>
       </c>
       <c r="D6">
-        <v>8.267251219542926</v>
+        <v>8.280435996562561</v>
       </c>
       <c r="E6">
-        <v>11.77018633223283</v>
+        <v>11.7917437816336</v>
       </c>
       <c r="F6">
-        <v>19.22111969098342</v>
+        <v>19.18415629936734</v>
       </c>
       <c r="G6">
-        <v>18.60779114740991</v>
+        <v>17.84144295751108</v>
       </c>
       <c r="H6">
-        <v>1.60406710022462</v>
+        <v>1.626622072784454</v>
       </c>
       <c r="I6">
-        <v>2.522116070180612</v>
+        <v>2.516292444570404</v>
       </c>
       <c r="J6">
-        <v>8.278464808856398</v>
+        <v>8.724642846220757</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.983819554492418</v>
+        <v>10.57008181996146</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.152363706243628</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.994758417986841</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.97208816865073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.9221090267949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.67296495825313</v>
+        <v>21.70667925072528</v>
       </c>
       <c r="C7">
-        <v>16.78684096056373</v>
+        <v>16.64301871722694</v>
       </c>
       <c r="D7">
-        <v>8.399750499413212</v>
+        <v>8.418007057446832</v>
       </c>
       <c r="E7">
-        <v>11.94659842606746</v>
+        <v>11.96790082395511</v>
       </c>
       <c r="F7">
-        <v>19.30402091254113</v>
+        <v>19.24570212326116</v>
       </c>
       <c r="G7">
-        <v>18.65645292329715</v>
+        <v>17.95502366668186</v>
       </c>
       <c r="H7">
-        <v>1.671479893789345</v>
+        <v>1.69064528413716</v>
       </c>
       <c r="I7">
-        <v>2.482346356161277</v>
+        <v>2.559123458562452</v>
       </c>
       <c r="J7">
-        <v>8.254846353354225</v>
+        <v>8.67797210103906</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.04364440777784</v>
+        <v>10.4913267808875</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.049524911563081</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.052262852873165</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.95105516139378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.88880733982279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76847635756909</v>
+        <v>23.79098499954164</v>
       </c>
       <c r="C8">
-        <v>18.2175764492162</v>
+        <v>18.20376385058923</v>
       </c>
       <c r="D8">
-        <v>8.956425855549808</v>
+        <v>8.989027634175745</v>
       </c>
       <c r="E8">
-        <v>12.69290853647353</v>
+        <v>12.7111249763308</v>
       </c>
       <c r="F8">
-        <v>19.71345794156755</v>
+        <v>19.5888903647395</v>
       </c>
       <c r="G8">
-        <v>18.95645185399848</v>
+        <v>18.37260890600275</v>
       </c>
       <c r="H8">
-        <v>1.958315634784174</v>
+        <v>1.964051249138286</v>
       </c>
       <c r="I8">
-        <v>2.688286328323088</v>
+        <v>2.740900723737845</v>
       </c>
       <c r="J8">
-        <v>8.166575787038601</v>
+        <v>8.555856200368417</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.301015821370574</v>
+        <v>10.18677257700579</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.62843299456136</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.301094092166709</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.89675053394882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.79822394273565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.4077145759325</v>
+        <v>27.41079087977418</v>
       </c>
       <c r="C9">
-        <v>20.69702559311414</v>
+        <v>20.91660960630906</v>
       </c>
       <c r="D9">
-        <v>9.955376181173298</v>
+        <v>10.00310766823041</v>
       </c>
       <c r="E9">
-        <v>14.03913825025935</v>
+        <v>14.04916603596177</v>
       </c>
       <c r="F9">
-        <v>20.61974088734767</v>
+        <v>20.40623814399332</v>
       </c>
       <c r="G9">
-        <v>19.76643014741126</v>
+        <v>19.12276221058399</v>
       </c>
       <c r="H9">
-        <v>2.482829705685308</v>
+        <v>2.465166818449192</v>
       </c>
       <c r="I9">
-        <v>3.07027392678183</v>
+        <v>3.079020490874569</v>
       </c>
       <c r="J9">
-        <v>8.039833938479706</v>
+        <v>8.46343049495446</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.778072309634483</v>
+        <v>9.692391058253776</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.94301738345284</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.764776910280019</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.90072756743836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.75331562581368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.79585774535312</v>
+        <v>29.78440002882363</v>
       </c>
       <c r="C10">
-        <v>22.38711207159477</v>
+        <v>22.72496304244745</v>
       </c>
       <c r="D10">
-        <v>10.54735057698121</v>
+        <v>10.62212476698193</v>
       </c>
       <c r="E10">
-        <v>14.73070305518422</v>
+        <v>14.74150706795258</v>
       </c>
       <c r="F10">
-        <v>21.12487361627587</v>
+        <v>20.77085461594384</v>
       </c>
       <c r="G10">
-        <v>20.21822982483713</v>
+        <v>19.98501585102109</v>
       </c>
       <c r="H10">
-        <v>2.831209901331554</v>
+        <v>2.795050162122011</v>
       </c>
       <c r="I10">
-        <v>3.337812458927599</v>
+        <v>3.315069054058883</v>
       </c>
       <c r="J10">
-        <v>7.932257415102029</v>
+        <v>8.188864396979699</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.002022537209015</v>
+        <v>9.350132144665753</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.490366216244199</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.977116449607595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.86049046881853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.61643067221786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.80561167823103</v>
+        <v>30.78777677679044</v>
       </c>
       <c r="C11">
-        <v>23.15759864759848</v>
+        <v>23.38326463911449</v>
       </c>
       <c r="D11">
-        <v>10.0252613614242</v>
+        <v>10.12144714137825</v>
       </c>
       <c r="E11">
-        <v>13.1311600034161</v>
+        <v>13.1415932321314</v>
       </c>
       <c r="F11">
-        <v>19.79120632676326</v>
+        <v>19.33760839237146</v>
       </c>
       <c r="G11">
-        <v>18.61914687277112</v>
+        <v>19.43628117856576</v>
       </c>
       <c r="H11">
-        <v>3.505619063873143</v>
+        <v>3.468984846960796</v>
       </c>
       <c r="I11">
-        <v>3.428114888488153</v>
+        <v>3.393304161530084</v>
       </c>
       <c r="J11">
-        <v>7.597140681450535</v>
+        <v>7.586914267563127</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.233567918103</v>
+        <v>9.138522937605464</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.095345334732266</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.201934982089946</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.09629070444658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.78832214041765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.17382762428483</v>
+        <v>31.15408083008524</v>
       </c>
       <c r="C12">
-        <v>23.39779737149496</v>
+        <v>23.51450044523908</v>
       </c>
       <c r="D12">
-        <v>9.447270001058408</v>
+        <v>9.544094357279327</v>
       </c>
       <c r="E12">
-        <v>11.67747839548796</v>
+        <v>11.68096369739312</v>
       </c>
       <c r="F12">
-        <v>18.58613571395428</v>
+        <v>18.13025730419123</v>
       </c>
       <c r="G12">
-        <v>17.22064093197449</v>
+        <v>18.56414413948814</v>
       </c>
       <c r="H12">
-        <v>4.592319677631984</v>
+        <v>4.563038911413591</v>
       </c>
       <c r="I12">
-        <v>3.447218484008955</v>
+        <v>3.408024948126214</v>
       </c>
       <c r="J12">
-        <v>7.349718284889048</v>
+        <v>7.301047151507349</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.626016363235308</v>
+        <v>9.083727758388168</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.909820885439071</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.593061411033899</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.48684949855492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.18640747430165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0830966673433</v>
+        <v>31.06502603520272</v>
       </c>
       <c r="C13">
-        <v>23.3158952586299</v>
+        <v>23.32025736547764</v>
       </c>
       <c r="D13">
-        <v>8.786838735264697</v>
+        <v>8.860433106774789</v>
       </c>
       <c r="E13">
-        <v>10.2467380361453</v>
+        <v>10.23588766291199</v>
       </c>
       <c r="F13">
-        <v>17.35524437855237</v>
+        <v>17.0049260474545</v>
       </c>
       <c r="G13">
-        <v>15.797859109265</v>
+        <v>17.10163373780853</v>
       </c>
       <c r="H13">
-        <v>5.805921088903835</v>
+        <v>5.784536037933868</v>
       </c>
       <c r="I13">
-        <v>3.416449473692269</v>
+        <v>3.380618214500879</v>
       </c>
       <c r="J13">
-        <v>7.143985350926593</v>
+        <v>7.220137671831793</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.123938779116456</v>
+        <v>9.101971780814393</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.877532687199629</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.094549024018463</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.92977692116566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.71418648043136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.81072519764931</v>
+        <v>30.79539758823391</v>
       </c>
       <c r="C14">
-        <v>23.1242613835707</v>
+        <v>23.04608858450677</v>
       </c>
       <c r="D14">
-        <v>8.283026350895511</v>
+        <v>8.330143313358839</v>
       </c>
       <c r="E14">
-        <v>9.280596861070991</v>
+        <v>9.257704881066768</v>
       </c>
       <c r="F14">
-        <v>16.47775423242862</v>
+        <v>16.24546438116586</v>
       </c>
       <c r="G14">
-        <v>14.77890760475929</v>
+        <v>15.8045720609113</v>
       </c>
       <c r="H14">
-        <v>6.700398437509617</v>
+        <v>6.68391123366017</v>
       </c>
       <c r="I14">
-        <v>3.37347483151143</v>
+        <v>3.343761606271203</v>
       </c>
       <c r="J14">
-        <v>7.019724296441023</v>
+        <v>7.233190987354527</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.851744878203034</v>
+        <v>9.13875273989583</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.931622690805398</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.826669991624861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.56495970631224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.43766393158283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.64493492823071</v>
+        <v>30.6310336941903</v>
       </c>
       <c r="C15">
-        <v>23.0247967819576</v>
+        <v>22.92443269775483</v>
       </c>
       <c r="D15">
-        <v>8.144224668256127</v>
+        <v>8.180620781096223</v>
       </c>
       <c r="E15">
-        <v>9.045888789672771</v>
+        <v>9.019741690098511</v>
       </c>
       <c r="F15">
-        <v>16.25216268228844</v>
+        <v>16.06716830291442</v>
       </c>
       <c r="G15">
-        <v>14.51299214662435</v>
+        <v>15.36710585959439</v>
       </c>
       <c r="H15">
-        <v>6.904214164413471</v>
+        <v>6.889185117769276</v>
       </c>
       <c r="I15">
-        <v>3.353291601439564</v>
+        <v>3.327199838972684</v>
       </c>
       <c r="J15">
-        <v>6.996295845701575</v>
+        <v>7.265290224016482</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.796258963630911</v>
+        <v>9.154748792578093</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.973195930833317</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.772985267512587</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.48259005853165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.38898493018233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.68581686576953</v>
+        <v>29.67905815480192</v>
       </c>
       <c r="C16">
-        <v>22.37175508063325</v>
+        <v>22.25888695824803</v>
       </c>
       <c r="D16">
-        <v>7.995734593252782</v>
+        <v>7.997964050580168</v>
       </c>
       <c r="E16">
-        <v>8.974599735542721</v>
+        <v>8.946396034199759</v>
       </c>
       <c r="F16">
-        <v>16.24541159353796</v>
+        <v>16.21041147026597</v>
       </c>
       <c r="G16">
-        <v>14.53729923239042</v>
+        <v>14.55618204871844</v>
       </c>
       <c r="H16">
-        <v>6.628937841670174</v>
+        <v>6.618027838135817</v>
       </c>
       <c r="I16">
-        <v>3.247292700409671</v>
+        <v>3.237527472661496</v>
       </c>
       <c r="J16">
-        <v>7.082745179024999</v>
+        <v>7.558658174577664</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.788366437361161</v>
+        <v>9.217827079237939</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.215342751878524</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.772187683835003</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.60464146045644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.61019378817781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.08497012527877</v>
+        <v>29.08203887991297</v>
       </c>
       <c r="C17">
-        <v>21.96913410823625</v>
+        <v>21.88855772837944</v>
       </c>
       <c r="D17">
-        <v>8.158710725769275</v>
+        <v>8.152980726744993</v>
       </c>
       <c r="E17">
-        <v>9.429497686927478</v>
+        <v>9.405008601783841</v>
       </c>
       <c r="F17">
-        <v>16.70870374379658</v>
+        <v>16.71075226122853</v>
       </c>
       <c r="G17">
-        <v>15.10297225525222</v>
+        <v>14.74832045236277</v>
       </c>
       <c r="H17">
-        <v>5.892652777249388</v>
+        <v>5.882949990649635</v>
       </c>
       <c r="I17">
-        <v>3.188866924822988</v>
+        <v>3.188010400049389</v>
       </c>
       <c r="J17">
-        <v>7.213169766471203</v>
+        <v>7.773133342855969</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.912183327996267</v>
+        <v>9.266551355794874</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.365061107310694</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.89930869914589</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.88791780515036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.91450748345158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.7389264442579</v>
+        <v>28.73762268087942</v>
       </c>
       <c r="C18">
-        <v>21.7072159852633</v>
+        <v>21.7084262720312</v>
       </c>
       <c r="D18">
-        <v>8.606813127106882</v>
+        <v>8.608179395754329</v>
       </c>
       <c r="E18">
-        <v>10.4647950033951</v>
+        <v>10.44716839823193</v>
       </c>
       <c r="F18">
-        <v>17.65273968779263</v>
+        <v>17.62764754143081</v>
       </c>
       <c r="G18">
-        <v>16.2301984256074</v>
+        <v>15.67323692396922</v>
       </c>
       <c r="H18">
-        <v>4.726179238885878</v>
+        <v>4.715219324567375</v>
       </c>
       <c r="I18">
-        <v>3.162855249925377</v>
+        <v>3.164771854764355</v>
       </c>
       <c r="J18">
-        <v>7.403970981473814</v>
+        <v>7.983174031820176</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.244034774676631</v>
+        <v>9.320195334021033</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.467423034052486</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.232082506409886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.36014103319882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.36364542584128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.62863407523756</v>
+        <v>28.6270706506502</v>
       </c>
       <c r="C19">
-        <v>21.664056014336</v>
+        <v>21.7780882891847</v>
       </c>
       <c r="D19">
-        <v>9.259686873848757</v>
+        <v>9.276557732939935</v>
       </c>
       <c r="E19">
-        <v>11.96506197098199</v>
+        <v>11.95594920441967</v>
       </c>
       <c r="F19">
-        <v>18.8768696242563</v>
+        <v>18.78688291412705</v>
       </c>
       <c r="G19">
-        <v>17.64371606983586</v>
+        <v>16.96208895008792</v>
       </c>
       <c r="H19">
-        <v>3.482581502627507</v>
+        <v>3.466928593340268</v>
       </c>
       <c r="I19">
-        <v>3.174656710592698</v>
+        <v>3.176490280044367</v>
       </c>
       <c r="J19">
-        <v>7.621824466157093</v>
+        <v>8.183884458105373</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.81475009771399</v>
+        <v>9.382481738098008</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.546452888106168</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.801651635801774</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.92721521418639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.88101026084936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.18667823957379</v>
+        <v>29.17960928442659</v>
       </c>
       <c r="C20">
-        <v>22.08605151559522</v>
+        <v>22.39712189586595</v>
       </c>
       <c r="D20">
-        <v>10.40994544134936</v>
+        <v>10.46518107425935</v>
       </c>
       <c r="E20">
-        <v>14.55023433650238</v>
+        <v>14.55612320902065</v>
       </c>
       <c r="F20">
-        <v>20.90024041326504</v>
+        <v>20.63803899622318</v>
       </c>
       <c r="G20">
-        <v>19.93659267189262</v>
+        <v>19.33248140948056</v>
       </c>
       <c r="H20">
-        <v>2.738202877747511</v>
+        <v>2.708287164130127</v>
       </c>
       <c r="I20">
-        <v>3.277173634553802</v>
+        <v>3.267043474385038</v>
       </c>
       <c r="J20">
-        <v>7.932502660663593</v>
+        <v>8.351321536000617</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.936984031171904</v>
+        <v>9.423524706762262</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.58541380303022</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.916963244016017</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.80071529046901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.62452826437868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.93377511644274</v>
+        <v>30.91245904602824</v>
       </c>
       <c r="C21">
-        <v>23.3055291604047</v>
+        <v>23.68117093903617</v>
       </c>
       <c r="D21">
-        <v>10.98494561626092</v>
+        <v>11.12422207208729</v>
       </c>
       <c r="E21">
-        <v>15.40594017916699</v>
+        <v>15.43713755421601</v>
       </c>
       <c r="F21">
-        <v>21.59119609818191</v>
+        <v>20.94148727134636</v>
       </c>
       <c r="G21">
-        <v>20.66016632885218</v>
+        <v>21.75457520798521</v>
       </c>
       <c r="H21">
-        <v>3.022660967213196</v>
+        <v>2.971353745277134</v>
       </c>
       <c r="I21">
-        <v>3.483763192463944</v>
+        <v>3.442611809408397</v>
       </c>
       <c r="J21">
-        <v>7.913008957446759</v>
+        <v>7.647898847779539</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.268811036721065</v>
+        <v>9.179879082753146</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.238097686806706</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.23060858046051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.93184698106351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.46538275373744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.02451032198454</v>
+        <v>31.9940008574603</v>
       </c>
       <c r="C22">
-        <v>24.02285600931895</v>
+        <v>24.42956921851826</v>
       </c>
       <c r="D22">
-        <v>11.29550081083653</v>
+        <v>11.49165881207948</v>
       </c>
       <c r="E22">
-        <v>15.83154859478472</v>
+        <v>15.88061564762027</v>
       </c>
       <c r="F22">
-        <v>21.98878414197484</v>
+        <v>21.07153384475903</v>
       </c>
       <c r="G22">
-        <v>21.10261167156686</v>
+        <v>23.40791242834844</v>
       </c>
       <c r="H22">
-        <v>3.19713845066218</v>
+        <v>3.132341285527458</v>
       </c>
       <c r="I22">
-        <v>3.611582320397834</v>
+        <v>3.549593169627632</v>
       </c>
       <c r="J22">
-        <v>7.89906566428788</v>
+        <v>7.227771283286128</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.427807470501529</v>
+        <v>9.037321370766319</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.019799995288277</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.377785760016122</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.01154475715208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.3386967644552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.44729962926831</v>
+        <v>31.42202933856002</v>
       </c>
       <c r="C23">
-        <v>23.59518385638548</v>
+        <v>23.99357635498307</v>
       </c>
       <c r="D23">
-        <v>11.12383861603291</v>
+        <v>11.28174869641289</v>
       </c>
       <c r="E23">
-        <v>15.60287197669762</v>
+        <v>15.63931553814345</v>
       </c>
       <c r="F23">
-        <v>21.80613045532896</v>
+        <v>21.06617070717316</v>
       </c>
       <c r="G23">
-        <v>20.91898376087042</v>
+        <v>22.38061448879824</v>
       </c>
       <c r="H23">
-        <v>3.104737743997223</v>
+        <v>3.047910603266313</v>
       </c>
       <c r="I23">
-        <v>3.540078084501696</v>
+        <v>3.488652166408684</v>
       </c>
       <c r="J23">
-        <v>7.915545957528399</v>
+        <v>7.510591206586725</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.344156259933431</v>
+        <v>9.118594277328846</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.156816253181237</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.301561214847247</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.99155946781902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.45521978409981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.1593407498493</v>
+        <v>29.15231641238292</v>
       </c>
       <c r="C24">
-        <v>21.99161198557416</v>
+        <v>22.31678142949769</v>
       </c>
       <c r="D24">
-        <v>10.46321184378908</v>
+        <v>10.52010085164796</v>
       </c>
       <c r="E24">
-        <v>14.71255258349719</v>
+        <v>14.71941262179758</v>
       </c>
       <c r="F24">
-        <v>21.07782060121506</v>
+        <v>20.80811600943949</v>
       </c>
       <c r="G24">
-        <v>20.17226689737933</v>
+        <v>19.54044092385877</v>
       </c>
       <c r="H24">
-        <v>2.746824679043236</v>
+        <v>2.716891432335862</v>
       </c>
       <c r="I24">
-        <v>3.271036153678849</v>
+        <v>3.259000744671463</v>
       </c>
       <c r="J24">
-        <v>7.972995789216203</v>
+        <v>8.391769487427862</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.018231908209209</v>
+        <v>9.447667507977418</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.621979484668187</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.99809329016267</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.90191352958016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.71912936168413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.47264383508098</v>
+        <v>26.48110284716856</v>
       </c>
       <c r="C25">
-        <v>20.13478736568012</v>
+        <v>20.29596158785234</v>
       </c>
       <c r="D25">
-        <v>9.706032845671318</v>
+        <v>9.744188813304429</v>
       </c>
       <c r="E25">
-        <v>13.69231104624886</v>
+        <v>13.70229992151206</v>
       </c>
       <c r="F25">
-        <v>20.31989895456138</v>
+        <v>20.15476452252955</v>
       </c>
       <c r="G25">
-        <v>19.44396229466743</v>
+        <v>18.70807507352776</v>
       </c>
       <c r="H25">
-        <v>2.344242066710635</v>
+        <v>2.333436132158115</v>
       </c>
       <c r="I25">
-        <v>2.973646347891505</v>
+        <v>2.99617623214039</v>
       </c>
       <c r="J25">
-        <v>8.05583999786467</v>
+        <v>8.520952565674431</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.650864791360179</v>
+        <v>9.807946807920121</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.103544360496408</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.641883725005927</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.85409498221756</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.73876846273884</v>
       </c>
     </row>
   </sheetData>
